--- a/mysqlDumps/Book1.xlsx
+++ b/mysqlDumps/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="199">
   <si>
     <t>DEPARTMENT</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Secure</t>
   </si>
   <si>
-    <t>Computer</t>
-  </si>
-  <si>
     <t>assigned</t>
   </si>
   <si>
@@ -612,6 +609,18 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>mac</t>
+  </si>
+  <si>
+    <t>Printer Computer</t>
+  </si>
+  <si>
+    <t>Pirnter only</t>
+  </si>
+  <si>
+    <t>computer</t>
   </si>
 </sst>
 </file>
@@ -1134,17 +1143,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG79"/>
+  <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="D67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O78" sqref="O78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -1156,7 +1165,7 @@
     <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="15.75" x14ac:dyDescent="0.25">
@@ -1164,13 +1173,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
@@ -1265,10 +1274,10 @@
         <v>2017</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -1290,28 +1299,28 @@
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="J3" s="10" t="s">
         <v>23</v>
@@ -1320,19 +1329,19 @@
         <v>23</v>
       </c>
       <c r="L3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="11" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>34</v>
       </c>
       <c r="N3" s="2">
         <v>2019</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -1354,47 +1363,47 @@
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="2">
         <v>2019</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -1416,7 +1425,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>16</v>
@@ -1431,32 +1440,32 @@
         <v>19</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="10" t="s">
         <v>37</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>38</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="2">
         <v>2017</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -1478,7 +1487,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>16</v>
@@ -1493,19 +1502,19 @@
         <v>19</v>
       </c>
       <c r="G6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L6" s="10" t="s">
         <v>24</v>
@@ -1515,10 +1524,10 @@
         <v>2017</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -1540,7 +1549,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>16</v>
@@ -1558,16 +1567,16 @@
         <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="K7" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L7" s="10" t="s">
         <v>24</v>
@@ -1577,10 +1586,10 @@
         <v>2017</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -1602,7 +1611,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>16</v>
@@ -1620,16 +1629,16 @@
         <v>20</v>
       </c>
       <c r="H8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="K8" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L8" s="10" t="s">
         <v>24</v>
@@ -1639,10 +1648,10 @@
         <v>2017</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -1664,7 +1673,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>16</v>
@@ -1676,22 +1685,22 @@
         <v>18</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L9" s="10" t="s">
         <v>24</v>
@@ -1701,10 +1710,10 @@
         <v>2019</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -1726,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>16</v>
@@ -1744,16 +1753,16 @@
         <v>20</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="K10" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>24</v>
@@ -1763,10 +1772,10 @@
         <v>2017</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -1788,7 +1797,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>16</v>
@@ -1806,16 +1815,16 @@
         <v>20</v>
       </c>
       <c r="H11" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="K11" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L11" s="10" t="s">
         <v>24</v>
@@ -1825,10 +1834,10 @@
         <v>2017</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -1850,7 +1859,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>16</v>
@@ -1868,16 +1877,16 @@
         <v>20</v>
       </c>
       <c r="H12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="K12" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L12" s="10" t="s">
         <v>24</v>
@@ -1887,10 +1896,10 @@
         <v>2017</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -1912,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>16</v>
@@ -1927,19 +1936,19 @@
         <v>19</v>
       </c>
       <c r="G13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="I13" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L13" s="10" t="s">
         <v>24</v>
@@ -1949,10 +1958,10 @@
         <v>2017</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1974,7 +1983,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>16</v>
@@ -1989,32 +1998,32 @@
         <v>19</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="10" t="s">
+      <c r="J14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L14" s="10" t="s">
         <v>38</v>
-      </c>
-      <c r="K14" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>39</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="2">
         <v>2017</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -2036,7 +2045,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>16</v>
@@ -2051,19 +2060,19 @@
         <v>19</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="J15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="J15" s="10" t="s">
+      <c r="K15" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="L15" s="10" t="s">
         <v>24</v>
@@ -2073,10 +2082,10 @@
         <v>2017</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -2098,7 +2107,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>16</v>
@@ -2110,37 +2119,37 @@
         <v>18</v>
       </c>
       <c r="F16" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="H16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="10" t="s">
+      <c r="J16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="J16" s="10" t="s">
+      <c r="K16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>53</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="11" t="s">
-        <v>54</v>
       </c>
       <c r="N16" s="2">
         <v>2019</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -2159,10 +2168,10 @@
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>16</v>
@@ -2177,34 +2186,34 @@
         <v>19</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I17" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>57</v>
-      </c>
-      <c r="M17" s="11" t="s">
-        <v>58</v>
       </c>
       <c r="N17" s="2">
         <v>2017</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
@@ -2223,10 +2232,10 @@
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>16</v>
@@ -2241,32 +2250,32 @@
         <v>19</v>
       </c>
       <c r="G18" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I18" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="2">
         <v>2017</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -2285,10 +2294,10 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
@@ -2306,16 +2315,16 @@
         <v>20</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I19" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L19" s="10" t="s">
         <v>24</v>
@@ -2325,10 +2334,10 @@
         <v>2017</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -2347,11 +2356,11 @@
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>56</v>
-      </c>
       <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
@@ -2362,37 +2371,37 @@
         <v>18</v>
       </c>
       <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>30</v>
-      </c>
       <c r="H20" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J20" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="K20" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" s="10" t="s">
+      <c r="M20" s="11" t="s">
         <v>61</v>
-      </c>
-      <c r="M20" s="11" t="s">
-        <v>62</v>
       </c>
       <c r="N20" s="2">
         <v>2019</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -2411,52 +2420,52 @@
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="C21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C21" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="10" t="s">
+      <c r="M21" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="N21" s="2">
         <v>2019</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -2475,15 +2484,17 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="10"/>
+        <v>66</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -2497,10 +2508,10 @@
         <v>2019</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -2519,11 +2530,11 @@
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>64</v>
-      </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
@@ -2534,35 +2545,35 @@
         <v>18</v>
       </c>
       <c r="F23" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>71</v>
-      </c>
       <c r="I23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K23" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L23" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M23" s="11"/>
       <c r="N23" s="2">
         <v>2014</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
@@ -2581,10 +2592,10 @@
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>16</v>
@@ -2599,34 +2610,34 @@
         <v>19</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K24" s="10" t="s">
+      <c r="L24" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="N24" s="2">
         <v>2017</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
@@ -2645,52 +2656,52 @@
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J25" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25" s="10" t="s">
+      <c r="L25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="L25" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="N25" s="2">
         <v>2019</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
@@ -2709,10 +2720,10 @@
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>16</v>
@@ -2724,35 +2735,35 @@
         <v>18</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>20</v>
       </c>
       <c r="H26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I26" s="10" t="s">
+      <c r="K26" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="J26" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="L26" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M26" s="14"/>
       <c r="N26" s="2">
         <v>2019</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
@@ -2771,10 +2782,10 @@
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>16</v>
@@ -2792,31 +2803,31 @@
         <v>20</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L27" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="M27" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="N27" s="2">
         <v>2017</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
@@ -2835,10 +2846,10 @@
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>16</v>
@@ -2856,31 +2867,31 @@
         <v>20</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L28" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M28" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N28" s="2">
         <v>2017</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
@@ -2899,10 +2910,10 @@
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>16</v>
@@ -2920,31 +2931,31 @@
         <v>20</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M29" s="11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="N29" s="2">
         <v>2017</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
@@ -2963,10 +2974,10 @@
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>16</v>
@@ -2981,32 +2992,32 @@
         <v>19</v>
       </c>
       <c r="G30" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="H30" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="I30" s="10" t="s">
-        <v>91</v>
-      </c>
       <c r="J30" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M30" s="11"/>
       <c r="N30" s="2">
         <v>2017</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -3025,10 +3036,10 @@
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>16</v>
@@ -3046,31 +3057,31 @@
         <v>20</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M31" s="11" t="s">
         <v>93</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>94</v>
       </c>
       <c r="N31" s="2">
         <v>2017</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
@@ -3089,10 +3100,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>16</v>
@@ -3110,29 +3121,29 @@
         <v>20</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I32" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J32" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K32" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L32" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M32" s="11"/>
       <c r="N32" s="2">
         <v>2017</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
@@ -3151,10 +3162,10 @@
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>16</v>
@@ -3172,29 +3183,29 @@
         <v>20</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I33" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="11"/>
       <c r="N33" s="2">
         <v>2017</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
@@ -3213,10 +3224,10 @@
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>16</v>
@@ -3234,29 +3245,29 @@
         <v>20</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M34" s="11"/>
       <c r="N34" s="2">
         <v>2017</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
@@ -3275,13 +3286,17 @@
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
+        <v>91</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="E35" s="10"/>
       <c r="F35" s="16"/>
       <c r="G35" s="16"/>
@@ -3291,16 +3306,16 @@
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
       <c r="M35" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="N35" s="2">
         <v>2017</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
@@ -3319,10 +3334,10 @@
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36" s="10" t="s">
         <v>97</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>16</v>
@@ -3340,27 +3355,31 @@
         <v>20</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="10"/>
+        <v>41</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="J36" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="M36" s="11"/>
+        <v>98</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>95</v>
+      </c>
       <c r="N36" s="2">
         <v>2017</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
@@ -3379,10 +3398,10 @@
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>16</v>
@@ -3400,31 +3419,31 @@
         <v>20</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I37" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M37" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N37" s="2">
         <v>2017</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
@@ -3443,13 +3462,13 @@
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>101</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>102</v>
       </c>
       <c r="D38" s="10" t="s">
         <v>17</v>
@@ -3461,34 +3480,34 @@
         <v>19</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J38" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M38" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N38" s="2">
         <v>2017</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
@@ -3507,10 +3526,10 @@
     </row>
     <row r="39" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>16</v>
@@ -3528,31 +3547,31 @@
         <v>20</v>
       </c>
       <c r="H39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K39" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M39" s="11" t="s">
         <v>108</v>
-      </c>
-      <c r="L39" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>109</v>
       </c>
       <c r="N39" s="2">
         <v>2017</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
@@ -3571,10 +3590,10 @@
     </row>
     <row r="40" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>16</v>
@@ -3586,13 +3605,13 @@
         <v>18</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>22</v>
@@ -3601,22 +3620,22 @@
         <v>23</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M40" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N40" s="2">
         <v>2014</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
@@ -3635,10 +3654,10 @@
     </row>
     <row r="41" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>107</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>16</v>
@@ -3653,32 +3672,32 @@
         <v>19</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H41" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="I41" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="J41" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="2">
         <v>2017</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
@@ -3697,52 +3716,52 @@
     </row>
     <row r="42" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="C42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>114</v>
-      </c>
       <c r="G42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="I42" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M42" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="N42" s="2">
         <v>2021</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
@@ -3761,10 +3780,10 @@
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>16</v>
@@ -3776,37 +3795,37 @@
         <v>18</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G43" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H43" s="10" t="s">
-        <v>46</v>
-      </c>
       <c r="I43" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K43" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K43" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L43" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M43" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N43" s="2">
         <v>2021</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
@@ -3825,10 +3844,10 @@
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>16</v>
@@ -3846,31 +3865,31 @@
         <v>20</v>
       </c>
       <c r="H44" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I44" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K44" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L44" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="M44" s="11" t="s">
         <v>118</v>
-      </c>
-      <c r="M44" s="11" t="s">
-        <v>119</v>
       </c>
       <c r="N44" s="2">
         <v>2017</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
@@ -3889,10 +3908,10 @@
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>16</v>
@@ -3907,32 +3926,32 @@
         <v>19</v>
       </c>
       <c r="G45" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H45" s="15" t="s">
+      <c r="I45" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J45" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I45" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J45" s="10" t="s">
+      <c r="K45" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K45" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L45" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M45" s="11"/>
       <c r="N45" s="2">
         <v>2017</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
@@ -3951,52 +3970,52 @@
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="C46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>122</v>
-      </c>
       <c r="J46" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L46" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M46" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="N46" s="2">
         <v>2019</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
@@ -4015,10 +4034,10 @@
     </row>
     <row r="47" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>16</v>
@@ -4033,34 +4052,34 @@
         <v>19</v>
       </c>
       <c r="G47" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H47" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M47" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N47" s="2">
         <v>2017</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
@@ -4079,52 +4098,52 @@
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="I48" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="I48" s="10" t="s">
+      <c r="J48" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="J48" s="10" t="s">
+      <c r="K48" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L48" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M48" s="11" t="s">
-        <v>130</v>
       </c>
       <c r="N48" s="2">
         <v>2019</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
@@ -4143,10 +4162,10 @@
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="10" t="s">
         <v>16</v>
@@ -4164,31 +4183,31 @@
         <v>20</v>
       </c>
       <c r="H49" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="I49" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="J49" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I49" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K49" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M49" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N49" s="2">
         <v>2017</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -4207,10 +4226,10 @@
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>16</v>
@@ -4228,31 +4247,31 @@
         <v>20</v>
       </c>
       <c r="H50" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K50" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>24</v>
       </c>
       <c r="M50" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2">
         <v>2017</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -4271,11 +4290,11 @@
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B51" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>136</v>
-      </c>
       <c r="C51" s="10" t="s">
         <v>16</v>
       </c>
@@ -4286,13 +4305,13 @@
         <v>18</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>22</v>
@@ -4301,22 +4320,22 @@
         <v>23</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M51" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="N51" s="2">
         <v>2021</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
@@ -4335,10 +4354,10 @@
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>16</v>
@@ -4356,29 +4375,29 @@
         <v>20</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J52" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M52" s="11"/>
       <c r="N52" s="2">
         <v>2017</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="2"/>
@@ -4397,10 +4416,10 @@
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C53" s="10" t="s">
         <v>16</v>
@@ -4418,16 +4437,16 @@
         <v>20</v>
       </c>
       <c r="H53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J53" s="10" t="s">
+      <c r="K53" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>24</v>
@@ -4437,10 +4456,10 @@
         <v>2017</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
@@ -4459,10 +4478,10 @@
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>136</v>
       </c>
       <c r="C54" s="10" t="s">
         <v>16</v>
@@ -4480,29 +4499,29 @@
         <v>20</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M54" s="11"/>
       <c r="N54" s="2">
         <v>2017</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
@@ -4521,10 +4540,10 @@
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>140</v>
       </c>
       <c r="C55" s="10" t="s">
         <v>16</v>
@@ -4542,10 +4561,10 @@
         <v>20</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>23</v>
@@ -4554,19 +4573,19 @@
         <v>23</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M55" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2">
         <v>2017</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
@@ -4585,10 +4604,10 @@
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>16</v>
@@ -4606,31 +4625,31 @@
         <v>20</v>
       </c>
       <c r="H56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I56" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K56" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M56" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="M56" s="11" t="s">
-        <v>144</v>
       </c>
       <c r="N56" s="2">
         <v>2017</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="2"/>
@@ -4649,13 +4668,13 @@
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>146</v>
       </c>
       <c r="D57" s="10" t="s">
         <v>17</v>
@@ -4670,31 +4689,31 @@
         <v>20</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I57" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L57" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M57" s="11" t="s">
         <v>147</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L57" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M57" s="11" t="s">
-        <v>148</v>
       </c>
       <c r="N57" s="2">
         <v>2017</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" s="2"/>
@@ -4713,16 +4732,16 @@
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A58" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>151</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>18</v>
@@ -4734,31 +4753,31 @@
         <v>20</v>
       </c>
       <c r="H58" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J58" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>43</v>
-      </c>
       <c r="K58" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M58" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N58" s="2">
         <v>2017</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="2"/>
@@ -4777,10 +4796,10 @@
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B59" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>153</v>
       </c>
       <c r="C59" s="10" t="s">
         <v>16</v>
@@ -4798,29 +4817,29 @@
         <v>20</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M59" s="11"/>
       <c r="N59" s="2">
         <v>2017</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="2"/>
@@ -4839,13 +4858,13 @@
     </row>
     <row r="60" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B60" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="10" t="s">
         <v>154</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>155</v>
       </c>
       <c r="D60" s="10"/>
       <c r="E60" s="10" t="s">
@@ -4863,10 +4882,10 @@
         <v>2022</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
@@ -4885,10 +4904,10 @@
     </row>
     <row r="61" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B61" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="B61" s="10" t="s">
-        <v>157</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>16</v>
@@ -4906,29 +4925,29 @@
         <v>20</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I61" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M61" s="11"/>
       <c r="N61" s="2">
         <v>2017</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="2"/>
@@ -4947,16 +4966,16 @@
     </row>
     <row r="62" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="C62" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>158</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>18</v>
@@ -4968,31 +4987,31 @@
         <v>20</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M62" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N62" s="2">
         <v>2017</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="2"/>
@@ -5011,10 +5030,10 @@
     </row>
     <row r="63" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>159</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="C63" s="10" t="s">
         <v>16</v>
@@ -5029,13 +5048,13 @@
         <v>19</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H63" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I63" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="I63" s="10" t="s">
-        <v>162</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>23</v>
@@ -5047,16 +5066,16 @@
         <v>24</v>
       </c>
       <c r="M63" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N63" s="2">
         <v>2017</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="2"/>
@@ -5075,10 +5094,10 @@
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>16</v>
@@ -5093,32 +5112,32 @@
         <v>19</v>
       </c>
       <c r="G64" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H64" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="I64" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J64" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M64" s="11"/>
       <c r="N64" s="2">
         <v>2017</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
@@ -5137,15 +5156,17 @@
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D65" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="E65" s="10"/>
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
@@ -5159,10 +5180,10 @@
         <v>2017</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -5184,15 +5205,17 @@
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D66" s="10"/>
+        <v>164</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>195</v>
+      </c>
       <c r="E66" s="10"/>
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
@@ -5206,10 +5229,10 @@
         <v>2017</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="2"/>
@@ -5231,10 +5254,10 @@
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>16</v>
@@ -5252,31 +5275,31 @@
         <v>20</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J67" s="10" t="s">
         <v>23</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M67" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N67" s="2">
         <v>2017</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="2"/>
@@ -5298,10 +5321,10 @@
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="B68" s="10" t="s">
-        <v>170</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>16</v>
@@ -5319,31 +5342,31 @@
         <v>20</v>
       </c>
       <c r="H68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I68" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="J68" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I68" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="J68" s="10" t="s">
+      <c r="K68" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K68" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L68" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M68" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N68" s="2">
         <v>2017</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="2"/>
@@ -5365,10 +5388,10 @@
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>172</v>
-      </c>
-      <c r="B69" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>16</v>
@@ -5386,29 +5409,29 @@
         <v>20</v>
       </c>
       <c r="H69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I69" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J69" s="10" t="s">
         <v>42</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>43</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>23</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M69" s="11"/>
       <c r="N69" s="2">
         <v>2017</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="2"/>
@@ -5430,10 +5453,10 @@
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>174</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>175</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>16</v>
@@ -5451,16 +5474,16 @@
         <v>20</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I70" s="10" t="s">
         <v>22</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L70" s="10" t="s">
         <v>24</v>
@@ -5470,10 +5493,10 @@
         <v>2017</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="2"/>
@@ -5495,10 +5518,10 @@
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>16</v>
@@ -5516,31 +5539,31 @@
         <v>20</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J71" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="K71" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K71" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L71" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="M71" s="11" t="s">
         <v>177</v>
-      </c>
-      <c r="M71" s="11" t="s">
-        <v>178</v>
       </c>
       <c r="N71" s="2">
         <v>2017</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2"/>
@@ -5562,13 +5585,13 @@
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D72" s="10" t="s">
         <v>17</v>
@@ -5580,32 +5603,32 @@
         <v>19</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K72" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="L72" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>180</v>
       </c>
       <c r="M72" s="11"/>
       <c r="N72" s="2">
         <v>2017</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q72" s="2"/>
       <c r="R72" s="2"/>
@@ -5627,52 +5650,52 @@
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B73" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F73" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J73" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M73" s="11" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="I73" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="L73" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M73" s="11" t="s">
-        <v>182</v>
       </c>
       <c r="N73" s="2">
         <v>2019</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2"/>
@@ -5694,11 +5717,11 @@
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="22" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="20" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="C74" s="20" t="s">
         <v>16</v>
       </c>
@@ -5709,37 +5732,37 @@
         <v>18</v>
       </c>
       <c r="F74" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G74" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="G74" s="20" t="s">
-        <v>30</v>
-      </c>
       <c r="H74" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I74" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J74" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K74" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="K74" s="20" t="s">
-        <v>44</v>
-      </c>
       <c r="L74" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M74" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N74" s="2">
         <v>2019</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" s="2"/>
@@ -5761,10 +5784,10 @@
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C75" s="10" t="s">
         <v>16</v>
@@ -5782,29 +5805,29 @@
         <v>20</v>
       </c>
       <c r="H75" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I75" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I75" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J75" s="10" t="s">
+      <c r="K75" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="K75" s="10" t="s">
-        <v>44</v>
-      </c>
       <c r="L75" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M75" s="11"/>
       <c r="N75" s="2">
         <v>2017</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" s="2"/>
@@ -5825,39 +5848,51 @@
       <c r="AG75" s="1"/>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
-        <v>183</v>
+      <c r="A76" s="18" t="s">
+        <v>186</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>19</v>
+      </c>
       <c r="G76" s="10" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="11"/>
+        <v>22</v>
+      </c>
+      <c r="J76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M76" s="10"/>
       <c r="N76" s="2">
         <v>2017</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2"/>
@@ -5878,199 +5913,134 @@
       <c r="AG76" s="1"/>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A77" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="10" t="s">
+      <c r="A77" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F77" s="10" t="s">
+      <c r="B77" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="I77" s="10" t="s">
+      <c r="G77" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I77" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="J77" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K77" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M77" s="10"/>
+      <c r="J77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="M77" s="13"/>
       <c r="N77" s="2">
         <v>2017</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-      <c r="AA77" s="2"/>
-      <c r="AB77" s="2"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="1"/>
-      <c r="AF77" s="1"/>
-      <c r="AG77" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="23"/>
+      <c r="S77" s="23"/>
+      <c r="T77" s="23"/>
+      <c r="U77" s="23"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
+      <c r="X77" s="23"/>
+      <c r="Y77" s="23"/>
+      <c r="Z77" s="23"/>
+      <c r="AA77" s="23"/>
+      <c r="AB77" s="23"/>
+      <c r="AC77" s="24"/>
+      <c r="AD77" s="24"/>
+      <c r="AE77" s="25"/>
+      <c r="AF77" s="25"/>
+      <c r="AG77" s="25"/>
     </row>
     <row r="78" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A78" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="B78" s="13" t="s">
+      <c r="A78" s="26" t="s">
         <v>190</v>
       </c>
-      <c r="C78" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E78" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F78" s="13" t="s">
+      <c r="B78" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="H78" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J78" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="K78" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="L78" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="M78" s="13"/>
+      <c r="G78" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="I78" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="J78" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K78" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L78" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="M78" s="27"/>
       <c r="N78" s="2">
         <v>2017</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>25</v>
+        <v>198</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="23"/>
-      <c r="S78" s="23"/>
-      <c r="T78" s="23"/>
-      <c r="U78" s="23"/>
-      <c r="V78" s="23"/>
-      <c r="W78" s="23"/>
-      <c r="X78" s="23"/>
-      <c r="Y78" s="23"/>
-      <c r="Z78" s="23"/>
-      <c r="AA78" s="23"/>
-      <c r="AB78" s="23"/>
-      <c r="AC78" s="24"/>
-      <c r="AD78" s="24"/>
-      <c r="AE78" s="25"/>
-      <c r="AF78" s="25"/>
-      <c r="AG78" s="25"/>
-    </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A79" s="26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>192</v>
-      </c>
-      <c r="C79" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="G79" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="I79" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="J79" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="K79" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L79" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="M79" s="27"/>
-      <c r="N79" s="2">
-        <v>2017</v>
-      </c>
-      <c r="O79" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="1"/>
+      <c r="AF78" s="1"/>
+      <c r="AG78" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
